--- a/data/trans_dic/P64D$publico_2023-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P64D$publico_2023-Edad-trans_dic.xlsx
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.07092737538195251</v>
+        <v>0.06810739849474969</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.117453481605269</v>
+        <v>0.1178265104965555</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.1218354395990513</v>
+        <v>0.1172332208086794</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.2765383871234358</v>
+        <v>0.2767529554664256</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.3385280429625343</v>
+        <v>0.3382384528840964</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.2695594362017998</v>
+        <v>0.2690770109099375</v>
       </c>
     </row>
     <row r="7">
@@ -625,7 +625,7 @@
         <v>0.1068710658526772</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.09303973409571006</v>
+        <v>0.09303973409571005</v>
       </c>
     </row>
     <row r="8">
@@ -636,13 +636,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.05328124220615916</v>
+        <v>0.05365808694580017</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.07499254237170012</v>
+        <v>0.07874826208717794</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.06819854460019853</v>
+        <v>0.0691733556932904</v>
       </c>
     </row>
     <row r="9">
@@ -653,13 +653,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.1221816358327917</v>
+        <v>0.1265626210042166</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.1473823392880586</v>
+        <v>0.1468114835619031</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.1218128610846475</v>
+        <v>0.1201605439013229</v>
       </c>
     </row>
     <row r="10">
@@ -680,7 +680,7 @@
         <v>0.08697974122362302</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>0.08369957516934567</v>
+        <v>0.08369957516934566</v>
       </c>
     </row>
     <row r="11">
@@ -691,13 +691,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.05770007047614036</v>
+        <v>0.05891185066257551</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.06325692280872293</v>
+        <v>0.06460512242800484</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.06761778843748498</v>
+        <v>0.06700453971310166</v>
       </c>
     </row>
     <row r="12">
@@ -708,13 +708,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.109330208397074</v>
+        <v>0.1089774114507243</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.1161739242834728</v>
+        <v>0.1187728953951144</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.1034002664430205</v>
+        <v>0.1031945938807767</v>
       </c>
     </row>
     <row r="13">
@@ -729,13 +729,13 @@
         </is>
       </c>
       <c r="C13" s="5" t="n">
-        <v>0.06190870675116499</v>
+        <v>0.06190870675116497</v>
       </c>
       <c r="D13" s="5" t="n">
         <v>0.1208522213330212</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.08876648197571339</v>
+        <v>0.08876648197571338</v>
       </c>
     </row>
     <row r="14">
@@ -746,13 +746,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.04296999094562351</v>
+        <v>0.04360199837710141</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.09675003121320457</v>
+        <v>0.0972663147409681</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.07382008968311486</v>
+        <v>0.07335443618826858</v>
       </c>
     </row>
     <row r="15">
@@ -763,13 +763,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.08888827659587874</v>
+        <v>0.08327205953831926</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.1490326115427964</v>
+        <v>0.1479149192281979</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.1061876253764254</v>
+        <v>0.1072736364809973</v>
       </c>
     </row>
     <row r="16">
@@ -784,7 +784,7 @@
         </is>
       </c>
       <c r="C16" s="5" t="n">
-        <v>0.09763803071022394</v>
+        <v>0.09763803071022389</v>
       </c>
       <c r="D16" s="5" t="n">
         <v>0.1192436800611208</v>
@@ -801,13 +801,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.06812529313388353</v>
+        <v>0.06928216923517562</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.0867571399580304</v>
+        <v>0.08883901137251271</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.08462718050726513</v>
+        <v>0.08448560170651415</v>
       </c>
     </row>
     <row r="18">
@@ -818,13 +818,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.132216615304309</v>
+        <v>0.134904181980399</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.1555704908412259</v>
+        <v>0.1574305974220768</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.1298381126758184</v>
+        <v>0.1316576251189412</v>
       </c>
     </row>
     <row r="19">
@@ -842,7 +842,7 @@
         <v>0.08266680517370262</v>
       </c>
       <c r="D19" s="5" t="n">
-        <v>0.1142801098429939</v>
+        <v>0.114280109842994</v>
       </c>
       <c r="E19" s="5" t="n">
         <v>0.09653648426882781</v>
@@ -856,13 +856,13 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.06862647780725617</v>
+        <v>0.06930309749398579</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.1002592643976408</v>
+        <v>0.09834485033220097</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.08680504770128712</v>
+        <v>0.08726450139682146</v>
       </c>
     </row>
     <row r="21">
@@ -873,13 +873,13 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.0972435650658646</v>
+        <v>0.096993283964197</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.1315996809280773</v>
+        <v>0.1295877529929924</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.107918916403278</v>
+        <v>0.1080904569527336</v>
       </c>
     </row>
     <row r="22">
@@ -1022,13 +1022,13 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>7435</v>
+        <v>7139</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>10776</v>
+        <v>10810</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>23948</v>
+        <v>23044</v>
       </c>
     </row>
     <row r="7">
@@ -1039,13 +1039,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>28987</v>
+        <v>29010</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>31058</v>
+        <v>31031</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>52986</v>
+        <v>52891</v>
       </c>
     </row>
     <row r="8">
@@ -1094,13 +1094,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>21095</v>
+        <v>21244</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>23632</v>
+        <v>24815</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>48492</v>
+        <v>49185</v>
       </c>
     </row>
     <row r="11">
@@ -1111,13 +1111,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>48374</v>
+        <v>50109</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>46443</v>
+        <v>46263</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>86614</v>
+        <v>85439</v>
       </c>
     </row>
     <row r="12">
@@ -1166,13 +1166,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>30956</v>
+        <v>31606</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>25113</v>
+        <v>25648</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>63121</v>
+        <v>62548</v>
       </c>
     </row>
     <row r="15">
@@ -1183,13 +1183,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>58655</v>
+        <v>58466</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>46121</v>
+        <v>47153</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>96524</v>
+        <v>96332</v>
       </c>
     </row>
     <row r="16">
@@ -1238,13 +1238,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>23356</v>
+        <v>23700</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>44020</v>
+        <v>44255</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>73712</v>
+        <v>73247</v>
       </c>
     </row>
     <row r="19">
@@ -1255,13 +1255,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>48315</v>
+        <v>45263</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>67808</v>
+        <v>67299</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>106032</v>
+        <v>107116</v>
       </c>
     </row>
     <row r="20">
@@ -1310,13 +1310,13 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>22305</v>
+        <v>22683</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>20191</v>
+        <v>20676</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>47403</v>
+        <v>47324</v>
       </c>
     </row>
     <row r="23">
@@ -1327,13 +1327,13 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>43289</v>
+        <v>44168</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>36206</v>
+        <v>36639</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>72727</v>
+        <v>73746</v>
       </c>
     </row>
     <row r="24">
@@ -1382,13 +1382,13 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>130952</v>
+        <v>132244</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>149545</v>
+        <v>146689</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>295117</v>
+        <v>296679</v>
       </c>
     </row>
     <row r="27">
@@ -1399,13 +1399,13 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>185559</v>
+        <v>185082</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>196291</v>
+        <v>193290</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>366900</v>
+        <v>367483</v>
       </c>
     </row>
     <row r="28">
